--- a/jpcore-r4/feature/改行テスト/StructureDefinition-JP-Consent.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-JP-Consent.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="362">
   <si>
     <t>Property</t>
   </si>
@@ -151,10 +151,6 @@
     <t>大まかに、患者には3つの重要な同意領域があります。情報の共有に関する同意（別名プライバシー同意指令 - 情報を収集、使用、または開示する許可）、特定の治療または治療の種類、および一般的な事前ケア指令の同意。 / Broadly, there are 3 key areas of consent for patients: Consent around sharing information (aka Privacy Consent Directive - Authorization to Collect, Use, or Disclose information), consent for specific treatment, or kinds of treatment, and general advance care directives.</t>
   </si>
   <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}ppc-1:ポリシーまたはPolicyruleのいずれか / Either a Policy or PolicyRule {policy.exists() or policyRule.exists()}ppc-2:scope =プライバシーの場合、患者がいる必要があります / IF Scope=privacy, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='patient-privacy').exists().not()}ppc-3:scope =研究の場合、患者がいる必要があります / IF Scope=research, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='research').exists().not()}ppc-4:scope = adrの場合、患者がいる必要があります / IF Scope=adr, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='adr').exists().not()}ppc-5:scope =治療の場合、患者がいる必要があります / IF Scope=treatment, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='treatment').exists().not()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -205,208 +201,208 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t>Consent.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>エレメント相互参照のためのユニークID</t>
+  </si>
+  <si>
+    <t>リソース内の要素の固有ID（内部参照用）。これは、スペースを含まない任意の文字列値である可能性があります。</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Consent.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>実装によって定義される追加コンテンツ</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
+  </si>
+  <si>
+    <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>拡張子は常にURLで切り片にされます。</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
+ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Consent.meta.versionId</t>
+  </si>
+  <si>
+    <t>バージョン固有の識別子 (Baajon koyū no shikibetsu-shi)</t>
+  </si>
+  <si>
+    <t>URLのバージョン部分に表示されるバージョン固有の識別子。この値は、リソースが作成、更新、または削除された場合に変更されます。</t>
+  </si>
+  <si>
+    <t>サーバーがこの値を割り当て、クライアントが指定した値を無視する。ただし、サーバーが更新/削除時にバージョンの整合性を強制する場合を除く。</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Consent.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>リソースのバージョンが最後に変更されたとき</t>
+  </si>
+  <si>
+    <t>リソースが最後に変更されたとき - 例えば、バージョンが変更されたとき。</t>
+  </si>
+  <si>
+    <t>この値はリソースが初めて作成される場合を除いて常に設定されています。サーバー/リソースマネージャーがこの値を設定します。クライアントが提供する値は関係ありません。これはHTTP Last-Modifiedに相当し、[read](http://hl7.org/fhir/R4/http.html#read)のインタラクションで同じ値を持つべきです。</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>Consent.meta.source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>「リソースがどこから来たかを特定する」(Risōsu ga doko kara kita ka o tokutei suru)</t>
+  </si>
+  <si>
+    <t>リソースのソースシステムを識別するURI。これにより、リソース内の情報のソースをトラックまたは区別するために使用できる最小限の[プロビナンス]（provenance.html＃）情報が提供されます。ソースは、別のFHIRサーバー、ドキュメント、メッセージ、データベースなどを識別できます。</t>
+  </si>
+  <si>
+    <t>プロバナンスのリソースにおいて、これはProvenance.entity.what[x]に対応します。ソースの正確な使用方法（および含意されるProvenance.entity.role）は実装者の判断に委ねられます。指定されたソースは1つだけです。追加のプロバナンスの詳細が必要な場合は、完全なプロバナンスリソースを使用するべきです。
+この要素は、正規のURLでホストされていないリソースの現在のマスターソースがどこにあるかを示すために使用できます。</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>Consent.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>このリソースが適合を主張するプロファイル</t>
+  </si>
+  <si>
+    <t>このリソースが準拠すると主張する [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) リソースに関するプロファイルのリストです。URL は [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url) への参照です。</t>
+  </si>
+  <si>
+    <t>これらの主張が時間の経過に伴って検証または更新される方法と、それらを決定するサーバーや他の基盤に任されます。プロファイルURLのリストは1セットです。</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>Consent.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>このリソースに適用されたセキュリティラベル</t>
+  </si>
+  <si>
+    <t>このリソースにはセキュリティラベルが適用されています。これらのタグにより、特定のリソースが全体的なセキュリティポリシーやインフラストラクチャに関連付けられます。</t>
+  </si>
+  <si>
+    <t>セキュリティラベルは変更せずにリソースのバージョンを更新可能です。セキュリティラベルのリストはセットであり、一意性はシステム/コードに基づき、バージョンと表示は無視されます。</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>医療プライバシーおよびセキュリティ分類システムからのセキュリティラベル。</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>Consent.meta.tag</t>
+  </si>
+  <si>
+    <t>このリソースに適用されたタグ</t>
+  </si>
+  <si>
+    <t>このリソースに適用されるタグです。タグは、リソースをプロセスやワークフローに識別し、関連付けるために使用することが意図されており、アプリケーションはリソースの意味を解釈する際にタグを考慮する必要はありません。</t>
+  </si>
+  <si>
+    <t>リソースの表示バージョンを変更することなく、タグを更新できます。タグのリストは集合です。ユニーク性はシステム/コードに基づき、バージョンと表示は無視されます。</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>様々なタグを表すコードで、一般的にはワークフローに関連しています。例：「ジョーンズ博士によるレビューが必要です」。</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>Consent.implicitRules</t>
+  </si>
+  <si>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>Consent.meta.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>エレメント相互参照のためのユニークID</t>
-  </si>
-  <si>
-    <t>リソース内の要素の固有ID（内部参照用）。これは、スペースを含まない任意の文字列値である可能性があります。</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Consent.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>実装によって定義される追加コンテンツ</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
-  </si>
-  <si>
-    <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>拡張子は常にURLで切り片にされます。</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Consent.meta.versionId</t>
-  </si>
-  <si>
-    <t>バージョン固有の識別子 (Baajon koyū no shikibetsu-shi)</t>
-  </si>
-  <si>
-    <t>URLのバージョン部分に表示されるバージョン固有の識別子。この値は、リソースが作成、更新、または削除された場合に変更されます。</t>
-  </si>
-  <si>
-    <t>サーバーがこの値を割り当て、クライアントが指定した値を無視する。ただし、サーバーが更新/削除時にバージョンの整合性を強制する場合を除く。</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Consent.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>リソースのバージョンが最後に変更されたとき</t>
-  </si>
-  <si>
-    <t>リソースが最後に変更されたとき - 例えば、バージョンが変更されたとき。</t>
-  </si>
-  <si>
-    <t>この値はリソースが初めて作成される場合を除いて常に設定されています。サーバー/リソースマネージャーがこの値を設定します。クライアントが提供する値は関係ありません。これはHTTP Last-Modifiedに相当し、[read](http://hl7.org/fhir/R4/http.html#read)のインタラクションで同じ値を持つべきです。</t>
-  </si>
-  <si>
-    <t>Meta.lastUpdated</t>
-  </si>
-  <si>
-    <t>Consent.meta.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>「リソースがどこから来たかを特定する」(Risōsu ga doko kara kita ka o tokutei suru)</t>
-  </si>
-  <si>
-    <t>リソースのソースシステムを識別するURI。これにより、リソース内の情報のソースをトラックまたは区別するために使用できる最小限の[プロビナンス]（provenance.html＃）情報が提供されます。ソースは、別のFHIRサーバー、ドキュメント、メッセージ、データベースなどを識別できます。</t>
-  </si>
-  <si>
-    <t>プロバナンスのリソースにおいて、これはProvenance.entity.what[x]に対応します。ソースの正確な使用方法（および含意されるProvenance.entity.role）は実装者の判断に委ねられます。指定されたソースは1つだけです。追加のプロバナンスの詳細が必要な場合は、完全なプロバナンスリソースを使用するべきです。
-この要素は、正規のURLでホストされていないリソースの現在のマスターソースがどこにあるかを示すために使用できます。</t>
-  </si>
-  <si>
-    <t>Meta.source</t>
-  </si>
-  <si>
-    <t>Consent.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
-</t>
-  </si>
-  <si>
-    <t>このリソースが適合を主張するプロファイル</t>
-  </si>
-  <si>
-    <t>このリソースが準拠すると主張する [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) リソースに関するプロファイルのリストです。URL は [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url) への参照です。</t>
-  </si>
-  <si>
-    <t>これらの主張が時間の経過に伴って検証または更新される方法と、それらを決定するサーバーや他の基盤に任されます。プロファイルURLのリストは1セットです。</t>
-  </si>
-  <si>
-    <t>Meta.profile</t>
-  </si>
-  <si>
-    <t>Consent.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>このリソースに適用されたセキュリティラベル</t>
-  </si>
-  <si>
-    <t>このリソースにはセキュリティラベルが適用されています。これらのタグにより、特定のリソースが全体的なセキュリティポリシーやインフラストラクチャに関連付けられます。</t>
-  </si>
-  <si>
-    <t>セキュリティラベルは変更せずにリソースのバージョンを更新可能です。セキュリティラベルのリストはセットであり、一意性はシステム/コードに基づき、バージョンと表示は無視されます。</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>医療プライバシーおよびセキュリティ分類システムからのセキュリティラベル。</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Meta.security</t>
-  </si>
-  <si>
-    <t>Consent.meta.tag</t>
-  </si>
-  <si>
-    <t>このリソースに適用されたタグ</t>
-  </si>
-  <si>
-    <t>このリソースに適用されるタグです。タグは、リソースをプロセスやワークフローに識別し、関連付けるために使用することが意図されており、アプリケーションはリソースの意味を解釈する際にタグを考慮する必要はありません。</t>
-  </si>
-  <si>
-    <t>リソースの表示バージョンを変更することなく、タグを更新できます。タグのリストは集合です。ユニーク性はシステム/コードに基づき、バージョンと表示は無視されます。</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>様々なタグを表すコードで、一般的にはワークフローに関連しています。例：「ジョーンズ博士によるレビューが必要です」。</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
-  </si>
-  <si>
-    <t>Consent.implicitRules</t>
-  </si>
-  <si>
-    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
   </si>
   <si>
     <t>Consent.language</t>
@@ -1615,16 +1611,16 @@
         <v>37</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="AM1" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="AM1" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>37</v>
@@ -1632,10 +1628,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1646,28 +1642,28 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>54</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1717,13 +1713,13 @@
         <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>37</v>
@@ -1746,10 +1742,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1760,25 +1756,25 @@
         <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>59</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1829,19 +1825,19 @@
         <v>37</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>37</v>
@@ -1858,10 +1854,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1872,7 +1868,7 @@
         <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>37</v>
@@ -1884,13 +1880,13 @@
         <v>37</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="M4" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>65</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1941,13 +1937,13 @@
         <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>37</v>
@@ -1962,7 +1958,7 @@
         <v>37</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>37</v>
@@ -1970,14 +1966,14 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -1996,16 +1992,16 @@
         <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2043,19 +2039,19 @@
         <v>37</v>
       </c>
       <c r="AB5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE5" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="AC5" t="s" s="2">
+      <c r="AF5" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
@@ -2067,7 +2063,7 @@
         <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>37</v>
@@ -2076,7 +2072,7 @@
         <v>37</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>37</v>
@@ -2084,10 +2080,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2098,28 +2094,28 @@
         <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H6" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J6" t="s" s="2">
+      <c r="K6" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="L6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2169,19 +2165,19 @@
         <v>37</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>37</v>
@@ -2198,10 +2194,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2212,28 +2208,28 @@
         <v>38</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="I7" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2283,19 +2279,19 @@
         <v>37</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>37</v>
@@ -2312,10 +2308,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2326,28 +2322,28 @@
         <v>38</v>
       </c>
       <c r="G8" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K8" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2397,19 +2393,19 @@
         <v>37</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>37</v>
@@ -2426,10 +2422,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2449,19 +2445,19 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2511,7 +2507,7 @@
         <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -2523,7 +2519,7 @@
         <v>37</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>37</v>
@@ -2540,10 +2536,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2563,19 +2559,19 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2601,31 +2597,31 @@
         <v>37</v>
       </c>
       <c r="X10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z10" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Y10" t="s" s="2">
+      <c r="AA10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF10" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -2637,7 +2633,7 @@
         <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>37</v>
@@ -2654,10 +2650,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2677,19 +2673,19 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N11" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2715,31 +2711,31 @@
         <v>37</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Z11" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="AA11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
@@ -2751,7 +2747,7 @@
         <v>37</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>37</v>
@@ -2768,10 +2764,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2782,28 +2778,28 @@
         <v>38</v>
       </c>
       <c r="G12" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="J12" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2853,19 +2849,19 @@
         <v>37</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>37</v>
@@ -2882,10 +2878,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2896,7 +2892,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>37</v>
@@ -2908,16 +2904,16 @@
         <v>37</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2943,43 +2939,43 @@
         <v>37</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AA13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>133</v>
-      </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>37</v>
@@ -2996,21 +2992,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>37</v>
@@ -3022,16 +3018,16 @@
         <v>37</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3081,28 +3077,28 @@
         <v>37</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>37</v>
@@ -3110,14 +3106,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3136,16 +3132,16 @@
         <v>37</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3195,7 +3191,7 @@
         <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
@@ -3216,7 +3212,7 @@
         <v>37</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>37</v>
@@ -3224,14 +3220,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3250,16 +3246,16 @@
         <v>37</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3309,7 +3305,7 @@
         <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
@@ -3321,7 +3317,7 @@
         <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>37</v>
@@ -3330,7 +3326,7 @@
         <v>37</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>37</v>
@@ -3338,14 +3334,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3358,25 +3354,25 @@
         <v>37</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O17" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>37</v>
@@ -3425,7 +3421,7 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
@@ -3437,7 +3433,7 @@
         <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>37</v>
@@ -3446,7 +3442,7 @@
         <v>37</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>37</v>
@@ -3454,10 +3450,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3477,19 +3473,19 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3539,7 +3535,7 @@
         <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>38</v>
@@ -3551,27 +3547,27 @@
         <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AL18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>168</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3579,34 +3575,34 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="J19" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K19" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>37</v>
@@ -3631,63 +3627,63 @@
         <v>37</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Y19" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="Z19" t="s" s="2">
+      <c r="AA19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AA19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>180</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3695,28 +3691,28 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="J20" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K20" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3743,14 +3739,14 @@
         <v>37</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Y20" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Z20" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="AA20" t="s" s="2">
         <v>37</v>
       </c>
@@ -3767,19 +3763,19 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>37</v>
@@ -3796,10 +3792,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3807,7 +3803,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>39</v>
@@ -3819,16 +3815,16 @@
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3855,14 +3851,14 @@
         <v>37</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Y21" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="Z21" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="Z21" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="AA21" t="s" s="2">
         <v>37</v>
       </c>
@@ -3879,10 +3875,10 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>39</v>
@@ -3891,27 +3887,27 @@
         <v>37</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>195</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3922,28 +3918,28 @@
         <v>38</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K22" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3993,39 +3989,39 @@
         <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>203</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4036,28 +4032,28 @@
         <v>38</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J23" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K23" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4107,43 +4103,43 @@
         <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>212</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4159,19 +4155,19 @@
         <v>37</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4221,7 +4217,7 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
@@ -4233,31 +4229,31 @@
         <v>37</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>221</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4273,16 +4269,16 @@
         <v>37</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4333,7 +4329,7 @@
         <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
@@ -4345,10 +4341,10 @@
         <v>37</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>37</v>
@@ -4357,15 +4353,15 @@
         <v>37</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4376,28 +4372,28 @@
         <v>38</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J26" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K26" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4447,25 +4443,25 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>37</v>
@@ -4476,10 +4472,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4502,13 +4498,13 @@
         <v>37</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4559,7 +4555,7 @@
         <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
@@ -4571,7 +4567,7 @@
         <v>37</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>37</v>
@@ -4588,10 +4584,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4602,7 +4598,7 @@
         <v>38</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>37</v>
@@ -4614,13 +4610,13 @@
         <v>37</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4671,13 +4667,13 @@
         <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>37</v>
@@ -4692,7 +4688,7 @@
         <v>37</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>37</v>
@@ -4700,14 +4696,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4726,16 +4722,16 @@
         <v>37</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4785,7 +4781,7 @@
         <v>37</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>38</v>
@@ -4797,7 +4793,7 @@
         <v>37</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>37</v>
@@ -4806,7 +4802,7 @@
         <v>37</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>37</v>
@@ -4814,14 +4810,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4834,25 +4830,25 @@
         <v>37</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="N30" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>37</v>
@@ -4901,7 +4897,7 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
@@ -4913,7 +4909,7 @@
         <v>37</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>37</v>
@@ -4922,7 +4918,7 @@
         <v>37</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>37</v>
@@ -4930,10 +4926,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4944,7 +4940,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>37</v>
@@ -4956,13 +4952,13 @@
         <v>37</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5013,19 +5009,19 @@
         <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>37</v>
@@ -5042,10 +5038,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5056,7 +5052,7 @@
         <v>38</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>37</v>
@@ -5068,16 +5064,16 @@
         <v>37</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5127,19 +5123,19 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>37</v>
@@ -5156,10 +5152,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5170,31 +5166,31 @@
         <v>38</v>
       </c>
       <c r="G33" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J33" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K33" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>37</v>
@@ -5219,14 +5215,14 @@
         <v>37</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Y33" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="Z33" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>261</v>
-      </c>
       <c r="AA33" t="s" s="2">
         <v>37</v>
       </c>
@@ -5243,19 +5239,19 @@
         <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>37</v>
@@ -5272,10 +5268,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5295,16 +5291,16 @@
         <v>37</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5355,7 +5351,7 @@
         <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
@@ -5367,7 +5363,7 @@
         <v>37</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>37</v>
@@ -5384,10 +5380,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5398,7 +5394,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>37</v>
@@ -5410,13 +5406,13 @@
         <v>37</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5467,13 +5463,13 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>37</v>
@@ -5488,7 +5484,7 @@
         <v>37</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>37</v>
@@ -5496,14 +5492,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5522,16 +5518,16 @@
         <v>37</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5581,7 +5577,7 @@
         <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>38</v>
@@ -5593,7 +5589,7 @@
         <v>37</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>37</v>
@@ -5602,7 +5598,7 @@
         <v>37</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>37</v>
@@ -5610,14 +5606,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5630,25 +5626,25 @@
         <v>37</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="N37" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>37</v>
@@ -5697,7 +5693,7 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
@@ -5709,7 +5705,7 @@
         <v>37</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>37</v>
@@ -5718,7 +5714,7 @@
         <v>37</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>37</v>
@@ -5726,10 +5722,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5737,28 +5733,28 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J38" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K38" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5809,19 +5805,19 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>37</v>
@@ -5838,10 +5834,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5852,7 +5848,7 @@
         <v>38</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>37</v>
@@ -5864,13 +5860,13 @@
         <v>37</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5921,19 +5917,19 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>37</v>
@@ -5950,10 +5946,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5964,7 +5960,7 @@
         <v>38</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>37</v>
@@ -5976,13 +5972,13 @@
         <v>37</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6033,19 +6029,19 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>37</v>
@@ -6062,10 +6058,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6076,25 +6072,25 @@
         <v>38</v>
       </c>
       <c r="G41" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J41" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K41" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6145,19 +6141,19 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>37</v>
@@ -6174,10 +6170,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6188,7 +6184,7 @@
         <v>38</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>37</v>
@@ -6200,13 +6196,13 @@
         <v>37</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6257,13 +6253,13 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>37</v>
@@ -6278,7 +6274,7 @@
         <v>37</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>37</v>
@@ -6286,14 +6282,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6312,16 +6308,16 @@
         <v>37</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6371,7 +6367,7 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
@@ -6383,7 +6379,7 @@
         <v>37</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>37</v>
@@ -6392,7 +6388,7 @@
         <v>37</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>37</v>
@@ -6400,14 +6396,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6420,25 +6416,25 @@
         <v>37</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="N44" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>37</v>
@@ -6487,7 +6483,7 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
@@ -6499,7 +6495,7 @@
         <v>37</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>37</v>
@@ -6508,7 +6504,7 @@
         <v>37</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>37</v>
@@ -6516,10 +6512,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6530,25 +6526,25 @@
         <v>38</v>
       </c>
       <c r="G45" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J45" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K45" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6575,14 +6571,14 @@
         <v>37</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Y45" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="Z45" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="Z45" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="AA45" t="s" s="2">
         <v>37</v>
       </c>
@@ -6599,19 +6595,19 @@
         <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>37</v>
@@ -6628,10 +6624,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6642,25 +6638,25 @@
         <v>38</v>
       </c>
       <c r="G46" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J46" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H46" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K46" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6711,19 +6707,19 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>37</v>
@@ -6740,10 +6736,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6766,13 +6762,13 @@
         <v>37</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6780,7 +6776,7 @@
         <v>37</v>
       </c>
       <c r="Q47" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>37</v>
@@ -6825,7 +6821,7 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
@@ -6837,7 +6833,7 @@
         <v>37</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>37</v>
@@ -6854,10 +6850,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6868,7 +6864,7 @@
         <v>38</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>37</v>
@@ -6880,13 +6876,13 @@
         <v>37</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6937,13 +6933,13 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>37</v>
@@ -6958,7 +6954,7 @@
         <v>37</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>37</v>
@@ -6966,14 +6962,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -6992,16 +6988,16 @@
         <v>37</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7051,7 +7047,7 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
@@ -7063,7 +7059,7 @@
         <v>37</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>37</v>
@@ -7072,7 +7068,7 @@
         <v>37</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>37</v>
@@ -7080,14 +7076,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7100,25 +7096,25 @@
         <v>37</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="N50" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>37</v>
@@ -7167,7 +7163,7 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
@@ -7179,7 +7175,7 @@
         <v>37</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>37</v>
@@ -7188,7 +7184,7 @@
         <v>37</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>37</v>
@@ -7196,10 +7192,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7207,10 +7203,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>37</v>
@@ -7222,13 +7218,13 @@
         <v>37</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7255,14 +7251,14 @@
         <v>37</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>305</v>
-      </c>
       <c r="AA51" t="s" s="2">
         <v>37</v>
       </c>
@@ -7279,19 +7275,19 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>37</v>
@@ -7308,10 +7304,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7319,10 +7315,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>37</v>
@@ -7334,13 +7330,13 @@
         <v>37</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7391,19 +7387,19 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>37</v>
@@ -7420,10 +7416,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7443,54 +7439,54 @@
         <v>37</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="Q53" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="R53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y53" t="s" s="2">
+      <c r="Z53" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="Z53" t="s" s="2">
-        <v>316</v>
-      </c>
       <c r="AA53" t="s" s="2">
         <v>37</v>
       </c>
@@ -7507,7 +7503,7 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
@@ -7519,7 +7515,7 @@
         <v>37</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>37</v>
@@ -7536,10 +7532,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7559,19 +7555,19 @@
         <v>37</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7597,14 +7593,14 @@
         <v>37</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="Z54" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Y54" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="AA54" t="s" s="2">
         <v>37</v>
       </c>
@@ -7621,7 +7617,7 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
@@ -7633,7 +7629,7 @@
         <v>37</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>37</v>
@@ -7650,10 +7646,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7673,19 +7669,19 @@
         <v>37</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7711,14 +7707,14 @@
         <v>37</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Y55" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="Z55" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="Z55" t="s" s="2">
-        <v>327</v>
-      </c>
       <c r="AA55" t="s" s="2">
         <v>37</v>
       </c>
@@ -7735,7 +7731,7 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
@@ -7747,7 +7743,7 @@
         <v>37</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>37</v>
@@ -7764,10 +7760,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7787,19 +7783,19 @@
         <v>37</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -7825,14 +7821,14 @@
         <v>37</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Y56" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="Z56" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="Z56" t="s" s="2">
-        <v>333</v>
-      </c>
       <c r="AA56" t="s" s="2">
         <v>37</v>
       </c>
@@ -7849,7 +7845,7 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>38</v>
@@ -7861,7 +7857,7 @@
         <v>37</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>37</v>
@@ -7878,10 +7874,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7901,19 +7897,19 @@
         <v>37</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -7939,14 +7935,14 @@
         <v>37</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Y57" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Z57" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="Z57" t="s" s="2">
-        <v>339</v>
-      </c>
       <c r="AA57" t="s" s="2">
         <v>37</v>
       </c>
@@ -7963,7 +7959,7 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
@@ -7975,7 +7971,7 @@
         <v>37</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>37</v>
@@ -7992,10 +7988,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8006,28 +8002,28 @@
         <v>38</v>
       </c>
       <c r="G58" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J58" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K58" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8077,19 +8073,19 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>37</v>
@@ -8106,10 +8102,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8129,16 +8125,16 @@
         <v>37</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8146,7 +8142,7 @@
         <v>37</v>
       </c>
       <c r="Q59" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>37</v>
@@ -8191,7 +8187,7 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
@@ -8203,7 +8199,7 @@
         <v>37</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>37</v>
@@ -8212,7 +8208,7 @@
         <v>37</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>37</v>
@@ -8220,10 +8216,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8234,7 +8230,7 @@
         <v>38</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>37</v>
@@ -8246,13 +8242,13 @@
         <v>37</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8303,13 +8299,13 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>37</v>
@@ -8324,7 +8320,7 @@
         <v>37</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>37</v>
@@ -8332,14 +8328,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8358,16 +8354,16 @@
         <v>37</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8417,7 +8413,7 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
@@ -8429,7 +8425,7 @@
         <v>37</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>37</v>
@@ -8438,7 +8434,7 @@
         <v>37</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>37</v>
@@ -8446,14 +8442,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8466,25 +8462,25 @@
         <v>37</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="N62" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>37</v>
@@ -8533,7 +8529,7 @@
         <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>38</v>
@@ -8545,7 +8541,7 @@
         <v>37</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>37</v>
@@ -8554,7 +8550,7 @@
         <v>37</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>37</v>
@@ -8562,10 +8558,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8573,28 +8569,28 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J63" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G63" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K63" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8621,14 +8617,14 @@
         <v>37</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Y63" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="Z63" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="Z63" t="s" s="2">
-        <v>355</v>
-      </c>
       <c r="AA63" t="s" s="2">
         <v>37</v>
       </c>
@@ -8645,19 +8641,19 @@
         <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>37</v>
@@ -8674,10 +8670,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8685,28 +8681,28 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J64" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G64" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K64" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8757,19 +8753,19 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>37</v>
@@ -8786,10 +8782,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8815,10 +8811,10 @@
         <v>40</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8869,7 +8865,7 @@
         <v>37</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>38</v>
@@ -8881,7 +8877,7 @@
         <v>37</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>37</v>
